--- a/biology/Zoologie/Hylodes_pipilans/Hylodes_pipilans.xlsx
+++ b/biology/Zoologie/Hylodes_pipilans/Hylodes_pipilans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hylodes pipilans est une espèce d'amphibiens de la famille des Hylodidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hylodes pipilans est une espèce d'amphibiens de la famille des Hylodidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de l'État de Rio de Janeiro au Brésil. Elle se rencontre à Guapimirim et Cachoeiras de Macacu dans la Serra dos Órgãos[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de l'État de Rio de Janeiro au Brésil. Elle se rencontre à Guapimirim et Cachoeiras de Macacu dans la Serra dos Órgãos.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les 9 spécimens adultes mâles observés lors de la description originale mesurent entre 23,0 mm et 25,1 mm de longueur standard et le spécimen adulte femelle observé lors de la description originale mesure 27,7 mm de longueur standard[2]. Son dos est brun foncé légèrement verdâtre. Son ventre est argenté avec des taches irrégulières brunes.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les 9 spécimens adultes mâles observés lors de la description originale mesurent entre 23,0 mm et 25,1 mm de longueur standard et le spécimen adulte femelle observé lors de la description originale mesure 27,7 mm de longueur standard. Son dos est brun foncé légèrement verdâtre. Son ventre est argenté avec des taches irrégulières brunes.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom d'espèce, du latin pipilans, « qui chante comme un oiseau », lui a été donné en référence à son chant d'appel[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom d'espèce, du latin pipilans, « qui chante comme un oiseau », lui a été donné en référence à son chant d'appel.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Canedo &amp; Pombal, 2007 : Two new species of torrent frog of the genus Hylodes (Anura, Hylodidae) with nuptial thumb tubercles. Herpetologica, vol. 63, no 2, p. 224-235 (texte intégral).</t>
         </is>
